--- a/DATA.xlsx
+++ b/DATA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\WEBSERVER\wamp\www\newsky_product\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\PROJECT\newsky\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="703" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="726" uniqueCount="241">
   <si>
     <t>Accounting</t>
   </si>
@@ -718,6 +718,36 @@
   </si>
   <si>
     <t>tckd</t>
+  </si>
+  <si>
+    <t>ns_order</t>
+  </si>
+  <si>
+    <t>Đơn hàng</t>
+  </si>
+  <si>
+    <t>order_id</t>
+  </si>
+  <si>
+    <t>customer_id</t>
+  </si>
+  <si>
+    <t>status_id</t>
+  </si>
+  <si>
+    <t>Sản phẩm đơn hàng</t>
+  </si>
+  <si>
+    <t>ns_order_product</t>
+  </si>
+  <si>
+    <t>order_product_id</t>
+  </si>
+  <si>
+    <t>quantity</t>
+  </si>
+  <si>
+    <t>deadline</t>
   </si>
 </sst>
 </file>
@@ -3261,10 +3291,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G36"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.5703125" defaultRowHeight="21" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3275,7 +3305,7 @@
     <col min="4" max="4" width="31.42578125" style="10" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.140625" style="10" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="32.5703125" style="10" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="38.85546875" style="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="32.5703125" style="10" customWidth="1"/>
     <col min="8" max="16384" width="22.5703125" style="10"/>
   </cols>
   <sheetData>
@@ -3556,7 +3586,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" s="13" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
         <v>215</v>
       </c>
@@ -3575,8 +3605,14 @@
       <c r="F17" s="13" t="s">
         <v>227</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G17" s="13" t="s">
+        <v>232</v>
+      </c>
+      <c r="H17" s="13" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="7" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="7" t="s">
         <v>216</v>
       </c>
@@ -3595,8 +3631,14 @@
       <c r="F18" s="7" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G18" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H18" s="7" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>217</v>
       </c>
@@ -3615,8 +3657,14 @@
       <c r="F19" s="9" t="s">
         <v>229</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G19" s="9" t="s">
+        <v>233</v>
+      </c>
+      <c r="H19" s="9" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>165</v>
       </c>
@@ -3635,8 +3683,14 @@
       <c r="F20" s="10" t="s">
         <v>170</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G20" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="H20" s="11" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>182</v>
       </c>
@@ -3655,8 +3709,14 @@
       <c r="F21" s="10" t="s">
         <v>162</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G21" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="H21" s="11" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>219</v>
       </c>
@@ -3675,8 +3735,14 @@
       <c r="F22" s="10" t="s">
         <v>230</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G22" s="10" t="s">
+        <v>235</v>
+      </c>
+      <c r="H22" s="11" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>220</v>
       </c>
@@ -3695,8 +3761,14 @@
       <c r="F23" s="11" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G23" s="11" t="s">
+        <v>164</v>
+      </c>
+      <c r="H23" s="11" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>169</v>
       </c>
@@ -3715,8 +3787,14 @@
       <c r="F24" s="10" t="s">
         <v>163</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G24" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="H24" s="10" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>189</v>
       </c>
@@ -3735,8 +3813,14 @@
       <c r="F25" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G25" s="11" t="s">
+        <v>167</v>
+      </c>
+      <c r="H25" s="10" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="10" t="s">
         <v>170</v>
       </c>
@@ -3752,8 +3836,14 @@
       <c r="F26" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G26" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="H26" s="10" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="10" t="s">
         <v>218</v>
       </c>
@@ -3766,8 +3856,11 @@
       <c r="D27" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H27" s="10" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="12" t="s">
         <v>221</v>
       </c>
@@ -3780,16 +3873,22 @@
       <c r="D28" s="10" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H28" s="11" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="12" t="s">
         <v>222</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="H29" s="10" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="12" t="s">
         <v>214</v>
       </c>
@@ -3797,12 +3896,12 @@
         <v>166</v>
       </c>
     </row>
-    <row r="31" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="12" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" ht="21" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="12" t="s">
         <v>206</v>
       </c>
